--- a/EfficiencyResults.xlsx
+++ b/EfficiencyResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bfuller/Research/fhipe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C457C03D-917B-064A-BA1C-448EAC60CC90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{06891630-4A14-E14A-BD0E-A2987B05020A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="1680" yWindow="500" windowWidth="41840" windowHeight="28300"/>
   </bookViews>
   <sheets>
     <sheet name="EfficiencyResults" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t xml:space="preserve"> Parallel</t>
   </si>
   <si>
-    <t xml:space="preserve"> Time Avg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Time StDev</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Barbosa</t>
+  </si>
+  <si>
+    <t>Enc DB Time Avg</t>
   </si>
 </sst>
 </file>
@@ -631,6 +631,2230 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Timing of Critical Operations for Different Values</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of sigma</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EfficiencyResults!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> KeyGen Time Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EfficiencyResults!$A$3:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Barbosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EfficiencyResults!$D$3:$D$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1.62996432781219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9628646373748699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9861557483673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0318380117416299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9550820827484101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.93104503154754</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8607526779174799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8343920707702599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.82320940494537</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8143326044082599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.75092151165008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7473155021667399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.72858409881591</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.67892255783081</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6584313392639101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5985460281371999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.56964831352233</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5498597145080499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.50878648757934</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.45503058433532</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4721067905426</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.45534076690673</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4587022781372001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4087675809860201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.37965168952941</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.32385983467102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.31221005916595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.26798467636108</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.2415024280547999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2144704580307</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.15641973018646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1371125221252401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1028127431869501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.12010998725891</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0497422218322701</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0543252706527699</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0098602771759</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.98942420482635496</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.91407129764556805</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.91168332099914495</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.88450853824615405</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.84541435241699203</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.81714887619018495</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.76755313873290998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.77402157783508296</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.73795304298400799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.68037605285644498</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66911828517913796</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.62283005714416495</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62797493934631299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.56855654716491699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.52874135971069303</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50269329547882002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.50216672420501696</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.47858395576476997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.473411726951599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.50338122844695998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.55132622718810997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58895659446716297</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.63476853370666497</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87754213809966997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.6688003063201899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.2474370002746502</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11.148404502868599</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69.7717882633209</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>61.4215574741363</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E83-2F46-B68B-526D85664FDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EfficiencyResults!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enc DB Time Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EfficiencyResults!$A$3:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Barbosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EfficiencyResults!$I$3:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>8.8112044334411603</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9053238153457599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6528246164321896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6290745496749803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.4896264076232892</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3077114582061693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.08483791351318</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8935798645019499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7833258152007998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5945225477218603</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4655811786651602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3619591474532999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1788394689559896</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.0041790485381998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.8660706520080499</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.7847112417220998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.63346266746521</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6301763534545897</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.4377807140350303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2814671039581302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2102215528488101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.03588488101959</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.9051515340804999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.7322472095489498</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.6337394475936797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.5117975473403904</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.3416880130767801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2247165203094399</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0678837060928297</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.9463704347610404</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8186457157135001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.6662763833999596</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5499271154403598</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.55663611888885</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.4270843267440796</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2887820243835399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2229345798492401</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.0298799991607597</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8908387422561601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.7439467668533299</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.6459123373031601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.48465495109558</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.33967819213867</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.2238398790359399</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.1725089073181101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.0403479576110799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.8828047752380299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7175763130187902</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6209989786148</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5446105003356898</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.41650245189666</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.23275508880615</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0938058853149402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0374230146408001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.8684941291809001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8097804069518999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6927473783492999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5855176210403401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.4418176889419501</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.3006040573120099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.20081405639648</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.12363555431365</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98141751289367596</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.88984327316284095</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.84376368522643996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76892359256744303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E83-2F46-B68B-526D85664FDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EfficiencyResults!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Search time Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EfficiencyResults!$A$3:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Barbosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EfficiencyResults!$O$3:$O$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>78.472567105293194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.895872068405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109.67756476402199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107.869121241569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.211184883117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.523245000839</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.247079515457</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.062555217742</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.327696275711006</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.426195311546294</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.760939645767195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.748493742942799</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>92.542035937309194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.478703975677405</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89.498272109031603</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>88.159700512886005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>86.527574324607798</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>84.374352622032106</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>82.890696144103998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>80.9182337522506</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>79.143384361267096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>77.356092071533197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75.890431785583502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74.177566933631894</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>72.198318219184799</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>70.772616696357701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.975925016403195</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67.378395462036096</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>65.533562254905704</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.0316612958908</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>63.137157893180799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>60.985178899765003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59.235674166679303</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>74.456856417655899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>72.112554740905694</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69.978639483451801</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>67.7604411363601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.0799176931381</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>63.120480251312202</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>60.755957579612698</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>58.568949818611102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>56.677256965637199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>54.614629554748497</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51.942609548568697</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>60.814520502090403</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>58.528679943084697</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56.120627140998799</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52.755267143249498</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.943564200401298</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>55.404669070243799</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52.168808507919302</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49.013411331176698</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45.880062437057497</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>49.5951775074005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.932491993904101</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>46.8055283546447</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>47.250034093856797</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>46.342548012733403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.515670132636998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42.087029004096898</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41.126145577430698</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41.827617549896203</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>40.058383536338802</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>39.365304708480799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38.202514433860699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E83-2F46-B68B-526D85664FDB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="515034687"/>
+        <c:axId val="565455679"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="515034687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565455679"/>
+        <c:crossesAt val="0.1"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565455679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515034687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.52975980728202299"/>
+          <c:y val="0.11643737144994079"/>
+          <c:w val="0.47024019271797696"/>
+          <c:h val="4.4512496623937838E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9505F614-62E6-9940-8417-4C02D6E79CD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -931,7 +3155,7 @@
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K3:K13"/>
+      <selection activeCell="Z39" sqref="Z39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,7 +3178,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -988,38 +3212,38 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>65</v>
       </c>
       <c r="B3" s="1">
@@ -1075,7 +3299,7 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>64</v>
       </c>
       <c r="B4" s="1">
@@ -1131,7 +3355,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>63</v>
       </c>
       <c r="B5" s="1">
@@ -1187,7 +3411,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>62</v>
       </c>
       <c r="B6" s="1">
@@ -1243,7 +3467,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>61</v>
       </c>
       <c r="B7" s="1">
@@ -1299,7 +3523,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>60</v>
       </c>
       <c r="B8" s="1">
@@ -1355,7 +3579,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>59</v>
       </c>
       <c r="B9" s="1">
@@ -1411,7 +3635,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>58</v>
       </c>
       <c r="B10" s="1">
@@ -1467,7 +3691,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>57</v>
       </c>
       <c r="B11" s="1">
@@ -1523,7 +3747,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>56</v>
       </c>
       <c r="B12" s="1">
@@ -1579,7 +3803,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>55</v>
       </c>
       <c r="B13" s="1">
@@ -1635,7 +3859,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>54</v>
       </c>
       <c r="B14" s="1">
@@ -1691,7 +3915,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>53</v>
       </c>
       <c r="B15" s="1">
@@ -1747,7 +3971,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>52</v>
       </c>
       <c r="B16" s="1">
@@ -1803,7 +4027,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>51</v>
       </c>
       <c r="B17" s="1">
@@ -1859,7 +4083,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>50</v>
       </c>
       <c r="B18" s="1">
@@ -1915,7 +4139,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>49</v>
       </c>
       <c r="B19" s="1">
@@ -1971,7 +4195,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>48</v>
       </c>
       <c r="B20" s="1">
@@ -2027,7 +4251,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>47</v>
       </c>
       <c r="B21" s="1">
@@ -2083,7 +4307,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>46</v>
       </c>
       <c r="B22" s="1">
@@ -2139,7 +4363,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>45</v>
       </c>
       <c r="B23" s="1">
@@ -2195,7 +4419,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>44</v>
       </c>
       <c r="B24" s="1">
@@ -2251,7 +4475,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>43</v>
       </c>
       <c r="B25" s="1">
@@ -2307,7 +4531,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>42</v>
       </c>
       <c r="B26" s="1">
@@ -2363,7 +4587,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>41</v>
       </c>
       <c r="B27" s="1">
@@ -2419,7 +4643,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>40</v>
       </c>
       <c r="B28" s="1">
@@ -2475,7 +4699,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>39</v>
       </c>
       <c r="B29" s="1">
@@ -2531,7 +4755,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>38</v>
       </c>
       <c r="B30" s="1">
@@ -2587,7 +4811,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>37</v>
       </c>
       <c r="B31" s="1">
@@ -2643,7 +4867,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>36</v>
       </c>
       <c r="B32" s="1">
@@ -2699,7 +4923,7 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>35</v>
       </c>
       <c r="B33" s="1">
@@ -2755,7 +4979,7 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
       <c r="B34" s="1">
@@ -2811,7 +5035,7 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="1">
@@ -2867,7 +5091,7 @@
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>32</v>
       </c>
       <c r="B36" s="1">
@@ -2923,7 +5147,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>31</v>
       </c>
       <c r="B37" s="1">
@@ -2979,7 +5203,7 @@
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>30</v>
       </c>
       <c r="B38" s="1">
@@ -3035,7 +5259,7 @@
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>29</v>
       </c>
       <c r="B39" s="1">
@@ -3091,7 +5315,7 @@
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>28</v>
       </c>
       <c r="B40" s="1">
@@ -3147,7 +5371,7 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>27</v>
       </c>
       <c r="B41" s="1">
@@ -3203,7 +5427,7 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>26</v>
       </c>
       <c r="B42" s="1">
@@ -3259,7 +5483,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>25</v>
       </c>
       <c r="B43" s="1">
@@ -3315,7 +5539,7 @@
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>24</v>
       </c>
       <c r="B44" s="1">
@@ -3371,7 +5595,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>23</v>
       </c>
       <c r="B45" s="1">
@@ -3427,7 +5651,7 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>22</v>
       </c>
       <c r="B46" s="1">
@@ -3483,7 +5707,7 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>21</v>
       </c>
       <c r="B47" s="1">
@@ -3539,7 +5763,7 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>20</v>
       </c>
       <c r="B48" s="1">
@@ -3595,7 +5819,7 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>19</v>
       </c>
       <c r="B49" s="1">
@@ -3651,7 +5875,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>18</v>
       </c>
       <c r="B50" s="1">
@@ -3707,7 +5931,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>17</v>
       </c>
       <c r="B51" s="1">
@@ -3763,7 +5987,7 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>16</v>
       </c>
       <c r="B52" s="1">
@@ -3819,7 +6043,7 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>15</v>
       </c>
       <c r="B53" s="1">
@@ -3875,7 +6099,7 @@
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>14</v>
       </c>
       <c r="B54" s="1">
@@ -3931,7 +6155,7 @@
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>13</v>
       </c>
       <c r="B55" s="1">
@@ -3987,7 +6211,7 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>12</v>
       </c>
       <c r="B56" s="1">
@@ -4043,7 +6267,7 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>11</v>
       </c>
       <c r="B57" s="1">
@@ -4099,7 +6323,7 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>10</v>
       </c>
       <c r="B58" s="1">
@@ -4155,7 +6379,7 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>9</v>
       </c>
       <c r="B59" s="1">
@@ -4211,7 +6435,7 @@
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>8</v>
       </c>
       <c r="B60" s="1">
@@ -4267,7 +6491,7 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>7</v>
       </c>
       <c r="B61" s="1">
@@ -4323,7 +6547,7 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>6</v>
       </c>
       <c r="B62" s="1">
@@ -4379,7 +6603,7 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>5</v>
       </c>
       <c r="B63" s="1">
@@ -4435,7 +6659,7 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>4</v>
       </c>
       <c r="B64" s="1">
@@ -4491,7 +6715,7 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>3</v>
       </c>
       <c r="B65" s="1">
@@ -4547,7 +6771,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>2</v>
       </c>
       <c r="B66" s="1">
@@ -4603,7 +6827,7 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>1</v>
       </c>
       <c r="B67" s="1">
@@ -4659,8 +6883,8 @@
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>21</v>
+      <c r="A68" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B68" s="1">
         <v>1.39852046966552E-2</v>
@@ -4704,5 +6928,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/EfficiencyResults.xlsx
+++ b/EfficiencyResults.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bfuller/Research/fhipe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{06891630-4A14-E14A-BD0E-A2987B05020A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7455F051-A8CF-4C40-B32C-53B68923C6E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="500" windowWidth="41840" windowHeight="28300"/>
+    <workbookView xWindow="9360" yWindow="500" windowWidth="41840" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EfficiencyResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Benchmarking Multi Basis Generation</t>
   </si>
@@ -87,11 +87,14 @@
   <si>
     <t>Enc DB Time Avg</t>
   </si>
+  <si>
+    <t> 0.5204222000747911</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -652,7 +655,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -665,14 +668,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>Timing of Critical Operations for Different Values</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
               <a:t> of sigma</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -689,7 +692,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2035,6 +2038,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>38.202514433860699</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38.320589971542297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2182,7 +2188,1248 @@
           <c:x val="0.52975980728202299"/>
           <c:y val="0.11643737144994079"/>
           <c:w val="0.47024019271797696"/>
-          <c:h val="4.4512496623937838E-2"/>
+          <c:h val="6.6833149814056886E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Size of Enc Database and Keys</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.37874904278390598"/>
+          <c:y val="1.7456359102244388E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EfficiencyResults!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Key size Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EfficiencyResults!$A$2:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>Number Bases</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Barbosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EfficiencyResults!$F$3:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>26796.799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57406.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56527.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54738.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53837.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52962.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52071.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51173</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50283.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49402.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>48499.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47612.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46732.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45823.8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44930.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44050.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43174.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42277.7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41390</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40500.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39601.199999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>38719.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37833.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36931.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36037.599999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35146.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34262.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33373.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32471.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31589.200000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30698.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29813.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50634.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49063.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>47502.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45921.9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44351.9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42790.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>41218.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39649.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38087.699999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36505.4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34958.400000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51704.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49254.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46810.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44371.4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41922.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>56551.4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53032.7</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>49519.3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46024.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>57642.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52874.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>62643.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>71245.600000000006</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>78156.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>82680</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>84299.6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>95519.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>126154.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>154346.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>224579.4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>422696.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>410003.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD89-6147-BDB3-9F1AF6CC3A91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>EfficiencyResults!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Size Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>EfficiencyResults!$A$2:$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>Number Bases</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Barbosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>EfficiencyResults!$K$3:$K$68</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>5877550.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8657453.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8523196.8000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8388918.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8253989.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8118493.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7983286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7849134.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7714502.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7580157.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7445427.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7310501.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7176387.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7041544.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6907132.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6771624</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6636592</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6502150.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6367470.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6233300.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6098200.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5963836.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5828937.2000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5694382.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5559915.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5425216.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5289712.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5155209.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5020238.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4885786.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4751508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4616886</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4482159.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5781210.7999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5602038</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5422521.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5241968.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5062829.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4883446.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4703914.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4524648.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4345002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4166027.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3985221.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4746527.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4522256.4000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4298308</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4073669.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3849010.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4340757.5999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4071784.8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3801836.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3531835.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3800930.8</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3485847.2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3621308</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3664929.2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3619452</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3483413.6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3259390.4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3169130.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3257465.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3122308.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3076119.6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2984072.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2939307.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD89-6147-BDB3-9F1AF6CC3A91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="515815295"/>
+        <c:axId val="565948959"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="515815295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="565948959"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="565948959"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="515815295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.65773074022762745"/>
+          <c:y val="0.10506175506116601"/>
+          <c:w val="0.33341704224611124"/>
+          <c:h val="6.3166493215779454E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2259,6 +3506,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2814,6 +4101,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2847,6 +4650,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A89E789-6DE8-E746-A548-6C9211E32496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3151,11 +4990,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6919,12 +8758,24 @@
       <c r="L68" s="1">
         <v>512.97033052604502</v>
       </c>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
+      <c r="M68" s="1">
+        <v>4.89842414855957E-2</v>
+      </c>
+      <c r="N68" s="1">
+        <v>3.3190645671518802E-3</v>
+      </c>
+      <c r="O68" s="1">
+        <v>38.320589971542297</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0</v>
+      </c>
+      <c r="R68" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
